--- a/graphics/Zeitplanung/prov_zeitplanung.xlsx
+++ b/graphics/Zeitplanung/prov_zeitplanung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anders\Documents\Studium\Semester_6\pro6E\Pflichtenheft_P6\graphics\Zeitplanung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\Studium\pro6E\Pflichtenheft_P6\graphics\Zeitplanung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B908E8-4EF0-466B-B563-4169AEBAAF43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11664284-B83A-4140-B0B0-7FB1DB807130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12230" xr2:uid="{D4F38930-CA9C-4F92-8E7C-C9561E771B9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="92">
+  <borders count="91">
     <border>
       <left/>
       <right/>
@@ -434,17 +434,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -476,19 +465,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1060,32 +1036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1288,19 +1238,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="1"/>
       </left>
       <right style="thin">
@@ -1512,6 +1449,58 @@
       </right>
       <top/>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1522,61 +1511,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1586,535 +1560,531 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="69" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="76" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="79" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="80" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="72" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="73" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="66" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="68" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="77" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="78" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="70" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="72" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="81" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="84" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="85" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="73" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2448,819 +2418,819 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A7FBE4-95CE-4E9B-9F8E-A537C638CD62}">
   <dimension ref="A1:BD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE18" sqref="AE18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="1.28515625" customWidth="1"/>
-    <col min="4" max="28" width="6.28515625" customWidth="1"/>
-    <col min="29" max="29" width="6.28515625" style="14" customWidth="1"/>
-    <col min="30" max="55" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="1.26953125" customWidth="1"/>
+    <col min="4" max="28" width="6.26953125" customWidth="1"/>
+    <col min="29" max="29" width="6.26953125" style="9" customWidth="1"/>
+    <col min="30" max="55" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="185" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="117" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="187"/>
+      <c r="D1" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119" t="s">
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="119"/>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="120" t="s">
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="147"/>
+      <c r="P1" s="147"/>
+      <c r="Q1" s="147"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="147"/>
+      <c r="T1" s="147"/>
+      <c r="U1" s="147"/>
+      <c r="V1" s="147"/>
+      <c r="W1" s="147"/>
+      <c r="X1" s="147"/>
+      <c r="Y1" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="BD1" s="9"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="BD1" s="5"/>
     </row>
-    <row r="2" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="108" t="s">
+      <c r="B2" s="189"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="111" t="s">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="64"/>
-      <c r="BD2" s="9"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="39"/>
+      <c r="BD2" s="5"/>
     </row>
-    <row r="3" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="158" t="s">
+    <row r="3" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="159"/>
-      <c r="C3" s="160"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="154"/>
-      <c r="J3" s="155"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="166"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="201"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="68"/>
-      <c r="BD3" s="9"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="150"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="143"/>
+      <c r="Y3" s="96"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="43"/>
+      <c r="BD3" s="5"/>
     </row>
-    <row r="4" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="162"/>
-      <c r="R4" s="162"/>
-      <c r="S4" s="162"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="114"/>
-      <c r="W4" s="114"/>
-      <c r="X4" s="201"/>
-      <c r="Y4" s="162"/>
-      <c r="Z4" s="162"/>
-      <c r="AA4" s="162"/>
-      <c r="AB4" s="162"/>
-      <c r="AC4" s="167"/>
-      <c r="BD4" s="9"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="157"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="159"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="141"/>
+      <c r="V4" s="142"/>
+      <c r="W4" s="142"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="161"/>
+      <c r="BD4" s="5"/>
     </row>
-    <row r="5" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="201"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="65"/>
-      <c r="BD5" s="9"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="150"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="141"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="40"/>
+      <c r="BD5" s="5"/>
     </row>
-    <row r="6" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170" t="s">
+    <row r="6" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="169"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="157"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="165"/>
-      <c r="R6" s="169"/>
-      <c r="S6" s="173"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="114"/>
-      <c r="W6" s="114"/>
-      <c r="X6" s="201"/>
-      <c r="Y6" s="177"/>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="175"/>
-      <c r="AB6" s="175"/>
-      <c r="AC6" s="176"/>
-      <c r="BD6" s="9"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="150"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="141"/>
+      <c r="V6" s="142"/>
+      <c r="W6" s="142"/>
+      <c r="X6" s="143"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="121"/>
+      <c r="BD6" s="5"/>
     </row>
-    <row r="7" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="197"/>
-      <c r="F7" s="197"/>
-      <c r="G7" s="197"/>
-      <c r="H7" s="197"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="197"/>
-      <c r="K7" s="197"/>
-      <c r="L7" s="197"/>
-      <c r="M7" s="197"/>
-      <c r="N7" s="198"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="134"/>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="127"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="201"/>
-      <c r="Y7" s="136"/>
-      <c r="Z7" s="136"/>
-      <c r="AA7" s="136"/>
-      <c r="AB7" s="136"/>
-      <c r="AC7" s="137"/>
-      <c r="BD7" s="9"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="150"/>
+      <c r="P7" s="128"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="129"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="117"/>
+      <c r="BD7" s="5"/>
     </row>
-    <row r="8" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="114"/>
-      <c r="W8" s="114"/>
-      <c r="X8" s="201"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="53"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="53"/>
-      <c r="AC8" s="65"/>
-      <c r="BD8" s="9"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="150"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="40"/>
+      <c r="BD8" s="5"/>
     </row>
-    <row r="9" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="113"/>
-      <c r="V9" s="114"/>
-      <c r="W9" s="114"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="65"/>
-      <c r="BD9" s="9"/>
+      <c r="B9" s="174"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="143"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="40"/>
+      <c r="BD9" s="5"/>
     </row>
-    <row r="10" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158" t="s">
+    <row r="10" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="179"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="178"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="182"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="173"/>
-      <c r="T10" s="169"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="199"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="68"/>
-      <c r="BD10" s="9"/>
+      <c r="B10" s="177"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="150"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="142"/>
+      <c r="W10" s="142"/>
+      <c r="X10" s="143"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="43"/>
+      <c r="BD10" s="5"/>
     </row>
-    <row r="11" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="88"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="113"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="201"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="91"/>
-      <c r="BD11" s="9"/>
+      <c r="B11" s="174"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="142"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="143"/>
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="195"/>
+      <c r="BD11" s="5"/>
     </row>
-    <row r="12" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+    <row r="12" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="133"/>
+      <c r="B12" s="136"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="130"/>
       <c r="Q12" s="131"/>
       <c r="R12" s="131"/>
       <c r="S12" s="131"/>
-      <c r="T12" s="129"/>
-      <c r="U12" s="113"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="201"/>
-      <c r="Y12" s="124"/>
-      <c r="Z12" s="124"/>
-      <c r="AA12" s="124"/>
-      <c r="AB12" s="124"/>
-      <c r="AC12" s="135"/>
-      <c r="BD12" s="9"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="141"/>
+      <c r="V12" s="142"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="143"/>
+      <c r="Y12" s="101"/>
+      <c r="Z12" s="101"/>
+      <c r="AA12" s="101"/>
+      <c r="AB12" s="101"/>
+      <c r="AC12" s="118"/>
+      <c r="BD12" s="5"/>
     </row>
-    <row r="13" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+    <row r="13" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="142"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="107"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="52"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="201"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="53"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="53"/>
-      <c r="AC13" s="65"/>
-      <c r="BD13" s="9"/>
+      <c r="B13" s="136"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="142"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="143"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="40"/>
+      <c r="BD13" s="5"/>
     </row>
-    <row r="14" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="170" t="s">
+    <row r="14" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="122" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="171"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="180"/>
-      <c r="J14" s="180"/>
-      <c r="K14" s="180"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="183"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="184"/>
-      <c r="Q14" s="165"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="173"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="113"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="201"/>
-      <c r="Y14" s="199"/>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="68"/>
-      <c r="BD14" s="9"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="106"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="150"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="142"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="143"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="43"/>
+      <c r="BD14" s="5"/>
     </row>
-    <row r="15" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+    <row r="15" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="134"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="127"/>
-      <c r="S15" s="127"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="201"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="137"/>
-      <c r="BD15" s="9"/>
+      <c r="B15" s="163"/>
+      <c r="C15" s="164"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="127"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="128"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="129"/>
+      <c r="U15" s="141"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="143"/>
+      <c r="Y15" s="116"/>
+      <c r="Z15" s="116"/>
+      <c r="AA15" s="116"/>
+      <c r="AB15" s="116"/>
+      <c r="AC15" s="117"/>
+      <c r="BD15" s="5"/>
     </row>
-    <row r="16" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="201"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="53"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="53"/>
-      <c r="AC16" s="65"/>
-      <c r="BD16" s="9"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="31"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="141"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="143"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="40"/>
+      <c r="BD16" s="5"/>
     </row>
-    <row r="17" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="170" t="s">
+    <row r="17" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="172"/>
-      <c r="D17" s="185"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="189"/>
-      <c r="K17" s="186"/>
-      <c r="L17" s="190"/>
-      <c r="M17" s="186"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="165"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="192"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="113"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="180"/>
-      <c r="Z17" s="180"/>
-      <c r="AA17" s="180"/>
-      <c r="AB17" s="180"/>
-      <c r="AC17" s="194"/>
-      <c r="BD17" s="9"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="141"/>
+      <c r="V17" s="142"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="143"/>
+      <c r="Y17" s="106"/>
+      <c r="Z17" s="106"/>
+      <c r="AA17" s="106"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="108"/>
+      <c r="BD17" s="5"/>
     </row>
-    <row r="18" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="162" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="127"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="127"/>
-      <c r="R18" s="127"/>
-      <c r="S18" s="127"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="113"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="201"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="137"/>
-      <c r="BD18" s="9"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="126"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="126"/>
+      <c r="N18" s="127"/>
+      <c r="O18" s="150"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="126"/>
+      <c r="R18" s="126"/>
+      <c r="S18" s="126"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="141"/>
+      <c r="V18" s="142"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="143"/>
+      <c r="Y18" s="116"/>
+      <c r="Z18" s="116"/>
+      <c r="AA18" s="116"/>
+      <c r="AB18" s="116"/>
+      <c r="AC18" s="117"/>
+      <c r="BD18" s="5"/>
     </row>
-    <row r="19" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
+    <row r="19" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="142"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="113"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="201"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="65"/>
-      <c r="BD19" s="9"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="134"/>
+      <c r="O19" s="150"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="141"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="143"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="40"/>
+      <c r="BD19" s="5"/>
     </row>
-    <row r="20" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="139"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="113"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="201"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="65"/>
-      <c r="BD20" s="9"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="137"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="113"/>
+      <c r="Q20" s="110"/>
+      <c r="R20" s="110"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="141"/>
+      <c r="V20" s="142"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="143"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="40"/>
+      <c r="BD20" s="5"/>
     </row>
-    <row r="21" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="170" t="s">
+    <row r="21" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="171"/>
-      <c r="C21" s="172"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="169"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="109"/>
-      <c r="P21" s="164"/>
-      <c r="Q21" s="165"/>
-      <c r="R21" s="169"/>
-      <c r="S21" s="173"/>
-      <c r="T21" s="195"/>
-      <c r="U21" s="113"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="201"/>
-      <c r="Y21" s="180"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="68"/>
-      <c r="BD21" s="9"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="78"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="141"/>
+      <c r="V21" s="142"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="143"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="43"/>
+      <c r="BD21" s="5"/>
     </row>
-    <row r="22" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+    <row r="22" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="126"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="127"/>
-      <c r="L22" s="127"/>
-      <c r="M22" s="127"/>
-      <c r="N22" s="128"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="134"/>
-      <c r="Q22" s="127"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="201"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="137"/>
-      <c r="BD22" s="9"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="126"/>
+      <c r="N22" s="127"/>
+      <c r="O22" s="150"/>
+      <c r="P22" s="128"/>
+      <c r="Q22" s="126"/>
+      <c r="R22" s="126"/>
+      <c r="S22" s="126"/>
+      <c r="T22" s="129"/>
+      <c r="U22" s="141"/>
+      <c r="V22" s="142"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="143"/>
+      <c r="Y22" s="116"/>
+      <c r="Z22" s="116"/>
+      <c r="AA22" s="116"/>
+      <c r="AB22" s="116"/>
+      <c r="AC22" s="117"/>
+      <c r="BD22" s="5"/>
     </row>
-    <row r="23" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="52"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="113"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="65"/>
-      <c r="BD23" s="9"/>
+      <c r="B23" s="174"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="150"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="141"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="143"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="40"/>
+      <c r="BD23" s="5"/>
     </row>
-    <row r="24" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="130"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="131"/>
       <c r="F24" s="131"/>
       <c r="G24" s="131"/>
@@ -3270,365 +3240,434 @@
       <c r="K24" s="131"/>
       <c r="L24" s="131"/>
       <c r="M24" s="131"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="133"/>
+      <c r="N24" s="168"/>
+      <c r="O24" s="150"/>
+      <c r="P24" s="130"/>
       <c r="Q24" s="131"/>
       <c r="R24" s="131"/>
       <c r="S24" s="131"/>
-      <c r="T24" s="129"/>
-      <c r="U24" s="113"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="201"/>
-      <c r="Y24" s="124"/>
-      <c r="Z24" s="124"/>
-      <c r="AA24" s="124"/>
-      <c r="AB24" s="124"/>
-      <c r="AC24" s="135"/>
-      <c r="BD24" s="9"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="142"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="143"/>
+      <c r="Y24" s="101"/>
+      <c r="Z24" s="101"/>
+      <c r="AA24" s="101"/>
+      <c r="AB24" s="101"/>
+      <c r="AC24" s="118"/>
+      <c r="BD24" s="5"/>
     </row>
-    <row r="25" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="25" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="135" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="140"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="52"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="113"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="201"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="65"/>
-      <c r="BD25" s="9"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="143"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="40"/>
+      <c r="BD25" s="5"/>
     </row>
-    <row r="26" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="46" t="s">
+    <row r="26" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="139"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="201"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="53"/>
-      <c r="AC26" s="65"/>
-      <c r="BD26" s="9"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="137"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="150"/>
+      <c r="P26" s="113"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="31"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="141"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="143"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="40"/>
+      <c r="BD26" s="5"/>
     </row>
-    <row r="27" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46" t="s">
+    <row r="27" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="122"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="70"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="70"/>
-      <c r="U27" s="113"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="201"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="36"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="73"/>
-      <c r="BD27" s="9"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="150"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="46"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="141"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="143"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="48"/>
+      <c r="BD27" s="5"/>
     </row>
-    <row r="28" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="158" t="s">
+    <row r="28" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="159"/>
-      <c r="C28" s="160"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="165"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="173"/>
-      <c r="T28" s="195"/>
-      <c r="U28" s="113"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="201"/>
-      <c r="Y28" s="180"/>
-      <c r="Z28" s="180"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="68"/>
-      <c r="BD28" s="10"/>
+      <c r="B28" s="177"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="150"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="141"/>
+      <c r="V28" s="142"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="143"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="106"/>
+      <c r="AA28" s="107"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="43"/>
+      <c r="BD28" s="6"/>
     </row>
-    <row r="29" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="134"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="114"/>
-      <c r="W29" s="114"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="137"/>
-      <c r="BD29" s="14"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="126"/>
+      <c r="K29" s="126"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="126"/>
+      <c r="N29" s="127"/>
+      <c r="O29" s="150"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="126"/>
+      <c r="R29" s="126"/>
+      <c r="S29" s="126"/>
+      <c r="T29" s="129"/>
+      <c r="U29" s="141"/>
+      <c r="V29" s="142"/>
+      <c r="W29" s="142"/>
+      <c r="X29" s="143"/>
+      <c r="Y29" s="116"/>
+      <c r="Z29" s="116"/>
+      <c r="AA29" s="116"/>
+      <c r="AB29" s="116"/>
+      <c r="AC29" s="117"/>
+      <c r="BD29" s="9"/>
     </row>
-    <row r="30" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="45"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="114"/>
-      <c r="W30" s="114"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="53"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="53"/>
-      <c r="AC30" s="65"/>
-      <c r="BD30" s="14"/>
+      <c r="B30" s="174"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="105"/>
+      <c r="U30" s="141"/>
+      <c r="V30" s="142"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="143"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="40"/>
+      <c r="BD30" s="9"/>
     </row>
-    <row r="31" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="98"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="202"/>
-      <c r="Y31" s="180"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="36"/>
-      <c r="AC31" s="73"/>
-      <c r="BD31" s="14"/>
+      <c r="B31" s="183"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="151"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="144"/>
+      <c r="V31" s="145"/>
+      <c r="W31" s="145"/>
+      <c r="X31" s="146"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="48"/>
+      <c r="BD31" s="9"/>
     </row>
-    <row r="32" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
+    <row r="32" spans="1:56" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="75">
+      <c r="B32" s="180"/>
+      <c r="C32" s="181"/>
+      <c r="D32" s="50">
         <v>8</v>
       </c>
-      <c r="E32" s="74">
+      <c r="E32" s="49">
         <v>9</v>
       </c>
-      <c r="F32" s="75">
+      <c r="F32" s="50">
         <v>10</v>
       </c>
-      <c r="G32" s="74">
+      <c r="G32" s="49">
         <v>11</v>
       </c>
-      <c r="H32" s="75">
+      <c r="H32" s="50">
         <v>12</v>
       </c>
-      <c r="I32" s="77">
+      <c r="I32" s="52">
         <v>13</v>
       </c>
-      <c r="J32" s="75">
+      <c r="J32" s="50">
         <v>14</v>
       </c>
-      <c r="K32" s="74">
+      <c r="K32" s="49">
         <v>15</v>
       </c>
-      <c r="L32" s="75">
+      <c r="L32" s="50">
         <v>16</v>
       </c>
-      <c r="M32" s="74">
+      <c r="M32" s="49">
         <v>17</v>
       </c>
-      <c r="N32" s="75">
+      <c r="N32" s="50">
         <v>18</v>
       </c>
-      <c r="O32" s="99">
+      <c r="O32" s="63">
         <v>19</v>
       </c>
-      <c r="P32" s="75">
+      <c r="P32" s="50">
         <v>20</v>
       </c>
-      <c r="Q32" s="74">
+      <c r="Q32" s="49">
         <v>21</v>
       </c>
-      <c r="R32" s="75">
+      <c r="R32" s="50">
         <v>22</v>
       </c>
-      <c r="S32" s="74">
+      <c r="S32" s="49">
         <v>23</v>
       </c>
-      <c r="T32" s="75">
+      <c r="T32" s="50">
         <v>24</v>
       </c>
-      <c r="U32" s="74">
+      <c r="U32" s="49">
         <v>25</v>
       </c>
-      <c r="V32" s="75">
+      <c r="V32" s="50">
         <v>26</v>
       </c>
-      <c r="W32" s="74">
+      <c r="W32" s="49">
         <v>27</v>
       </c>
-      <c r="X32" s="106">
+      <c r="X32" s="66">
         <v>28</v>
       </c>
-      <c r="Y32" s="105">
+      <c r="Y32" s="65">
         <v>29</v>
       </c>
-      <c r="Z32" s="76">
+      <c r="Z32" s="51">
         <v>30</v>
       </c>
-      <c r="AA32" s="74">
+      <c r="AA32" s="49">
         <v>31</v>
       </c>
-      <c r="AB32" s="76">
+      <c r="AB32" s="51">
         <v>32</v>
       </c>
-      <c r="AC32" s="77">
+      <c r="AC32" s="52">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="22"/>
+    <row r="40" spans="11:16" x14ac:dyDescent="0.35">
+      <c r="K40" s="16"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="17"/>
     </row>
-    <row r="41" spans="11:16" x14ac:dyDescent="0.25">
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
+    <row r="41" spans="11:16" x14ac:dyDescent="0.35">
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="85">
+    <mergeCell ref="D11:N11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="Y11:AC11"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="O2:O31"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="Y4:AC4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D18:N18"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="D29:N29"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="U2:X31"/>
+    <mergeCell ref="J1:X1"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="Y22:AC22"/>
+    <mergeCell ref="Y18:AC18"/>
+    <mergeCell ref="Y15:AC15"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D15:N15"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="Y12:AC12"/>
+    <mergeCell ref="Y7:AC7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="G10:L10"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="D7:N7"/>
     <mergeCell ref="D12:N12"/>
     <mergeCell ref="R30:T30"/>
@@ -3645,72 +3684,6 @@
     <mergeCell ref="P26:R26"/>
     <mergeCell ref="Y29:AC29"/>
     <mergeCell ref="Y24:AC24"/>
-    <mergeCell ref="Y22:AC22"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="Y15:AC15"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D15:N15"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="Y12:AC12"/>
-    <mergeCell ref="Y7:AC7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="G10:L10"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="U2:X31"/>
-    <mergeCell ref="J1:X1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="O2:O31"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="Y4:AC4"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D18:N18"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D29:N29"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="F14:N14"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.82677165354330717" right="0.23622047244094491" top="2.3228346456692917" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
